--- a/info_tables.xlsx
+++ b/info_tables.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projeto_loja_virtual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ABFEB3-811A-4CFC-BD59-EA1D5E7BCB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cadastro_produto" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -93,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,6 +169,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -159,7 +179,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -197,9 +217,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +252,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +304,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +511,11 @@
     <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -480,8 +535,12 @@
         <f>"    $sql_insert = ""INSERT INTO     tb_produtos(  "</f>
         <v xml:space="preserve">    $sql_insert = "INSERT INTO     tb_produtos(  </v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="str">
+        <f>"    $sql_updt = ""UPDATE tb_produtos SET"</f>
+        <v xml:space="preserve">    $sql_updt = "UPDATE tb_produtos SET</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -503,8 +562,12 @@
         <f>H2&amp;","</f>
         <v>nome,</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f>H2 &amp;" = "&amp;I11</f>
+        <v>nome = '$cx_nome',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -524,11 +587,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I10" si="2">H3&amp;","</f>
+        <f t="shared" ref="I3:I9" si="2">H3&amp;","</f>
         <v>preco,</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f>H3 &amp;" = "&amp;I12</f>
+        <v>preco = '$cx_preco',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -551,8 +618,12 @@
         <f t="shared" si="2"/>
         <v>vlr_desconto,</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K13" si="4">H4 &amp;" = "&amp;I13</f>
+        <v>vlr_desconto = '$cx_desconto',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -575,8 +646,12 @@
         <f t="shared" si="2"/>
         <v>vlr_liquido_produto,</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>vlr_liquido_produto = '$cx_vlr_liquido',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -599,8 +674,12 @@
         <f t="shared" si="2"/>
         <v>qtd_estoque,</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>qtd_estoque = '$cx_qtd_estoque',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -623,8 +702,12 @@
         <f t="shared" si="2"/>
         <v>def_produto_destaque,</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f>H7 &amp;" = "&amp;I17</f>
+        <v>def_produto_destaque = '$txt_produto_destaque',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -643,8 +726,12 @@
         <f t="shared" si="2"/>
         <v>formas_pgto,</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f>H8 &amp;" = "&amp;I18</f>
+        <v>formas_pgto = '$txt_formas_pgto',"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -663,8 +750,12 @@
         <f t="shared" si="2"/>
         <v>descricao,</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f>H9 &amp;" = "&amp;I16</f>
+        <v>descricao = '$cx_descricao',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f t="shared" si="3"/>
         <v>txt_formas_pgto:txt_formas_pgto,</v>
@@ -677,7 +768,7 @@
         <v>path_imagem,)values(</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>17</v>
       </c>
@@ -686,46 +777,46 @@
         <v>'$cx_nome',</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I12" t="str">
-        <f t="shared" ref="I12:I19" si="4">"'$"&amp;A3&amp;"',"</f>
+        <f t="shared" ref="I12:I17" si="5">"'$"&amp;A3&amp;"',"</f>
         <v>'$cx_preco',</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'$cx_desconto',</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'$cx_vlr_liquido',</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'$cx_qtd_estoque',</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'$cx_descricao',</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'$txt_produto_destaque',</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" t="str">
-        <f>"'$"&amp;A9&amp;"');"""</f>
-        <v>'$txt_formas_pgto');"</v>
+        <f>"'$"&amp;A9&amp;"',"""</f>
+        <v>'$txt_formas_pgto',"</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -747,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
